--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D78AA3-D2B8-4B57-84D8-C1A5CB736C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>hhh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D78AA3-D2B8-4B57-84D8-C1A5CB736C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86771822-EBC0-4064-85A9-D65C077D3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>hhh</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -345,20 +348,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5"/>
+  <dimension ref="F5:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86771822-EBC0-4064-85A9-D65C077D3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB3141-F453-456F-80DF-56AE110684EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hhh</t>
   </si>
   <si>
     <t>ab</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:G10"/>
+  <dimension ref="F5:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,6 +372,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB3141-F453-456F-80DF-56AE110684EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCE6F8-9A8B-462A-B999-E96C6A0B4D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hhh</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>adsfsadf</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:G17"/>
+  <dimension ref="F5:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,9 +380,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCE6F8-9A8B-462A-B999-E96C6A0B4D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3EA68-A271-4A89-A1DA-219BFCBDEBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>hhh</t>
   </si>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:J22"/>
+  <dimension ref="F5:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,12 +380,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>4</v>
       </c>

--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3EA68-A271-4A89-A1DA-219BFCBDEBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19127CC8-F425-4DEC-928F-62595989E130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>hhh</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>adsfsadf</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
   </si>
 </sst>
 </file>
@@ -360,22 +363,27 @@
   <dimension ref="F5:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>3</v>
       </c>

--- a/NewMicrosoftExcelWorksheet.xlsx
+++ b/NewMicrosoftExcelWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeniker\Desktop\New folder\GIT_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19127CC8-F425-4DEC-928F-62595989E130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC9B4E0-713D-4674-B486-63FD69E1AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>hhh</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>adf</t>
   </si>
 </sst>
 </file>
@@ -360,14 +363,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:L22"/>
+  <dimension ref="F4:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="5" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>0</v>
